--- a/assets/formatos/doctorado/formato_solicitud_revista.xlsx
+++ b/assets/formatos/doctorado/formato_solicitud_revista.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\Desktop\1.PC-PCS-21ago19\INSTRUCTIVOS\Solicitud REVISTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.PC-COORD-01-agosto-2021\Comite Academico\2021\Sesión CA 29 junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377F50E-75A0-424A-A1FA-9E3CF3ECA015}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A767C-DD74-4C6D-9AE4-1B11D5B9AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3600" windowWidth="38640" windowHeight="21240" xr2:uid="{82459533-3463-4CF1-ACEE-45D883333CED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82459533-3463-4CF1-ACEE-45D883333CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Revista 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Revista 2" sheetId="8" r:id="rId2"/>
-    <sheet name="Revista 3" sheetId="9" r:id="rId3"/>
+    <sheet name="Revista 2" sheetId="10" r:id="rId2"/>
+    <sheet name="Revista 3" sheetId="11" r:id="rId3"/>
     <sheet name="Vínculos" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>Nombre doctorante:</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Lista de revistas aprobadas por el Comité Académico</t>
-  </si>
-  <si>
-    <t>Lista de "Stop Predatory Journals"</t>
   </si>
   <si>
     <t>SERIUNAM</t>
@@ -91,54 +88,6 @@
   </si>
   <si>
     <t>Otra (indicar cuál):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lista de revistas aprobadas por el Comité Académico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lista de "Stop Predatory Journals"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -197,9 +146,6 @@
     <t>Base de datos</t>
   </si>
   <si>
-    <t>https://predatoryjournals.com/journals/</t>
-  </si>
-  <si>
     <t>http://dgb.unam.mx/index.php/catalogos/seriunam</t>
   </si>
   <si>
@@ -255,9 +201,6 @@
     <t>https://sostenibilidad.posgrado.unam.mx/doctorado/revistas</t>
   </si>
   <si>
-    <t>La revista (sí / no) se encuentra en la siguiente base de datos (señalar mínimo 4):</t>
-  </si>
-  <si>
     <t>SciELO</t>
   </si>
   <si>
@@ -275,12 +218,180 @@
   <si>
     <t>https://www.latindex.org/latindex/inicio</t>
   </si>
+  <si>
+    <t>COPE: Committee on Publication Ethics</t>
+  </si>
+  <si>
+    <t>OASPA: Open-Access Scholarly Publishing Association</t>
+  </si>
+  <si>
+    <t>DOAJ: Directory of Open-Access Journals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lista de revistas aprobadas por el Comité Académico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COPE: Committee on Publication Ethics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OASPA: Open-Access Scholarly Publishing Association</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOAJ: Directory of Open-Access Journals</t>
+    </r>
+  </si>
+  <si>
+    <t>Cabells Scholarly Analytics</t>
+  </si>
+  <si>
+    <t>Sherpa Romeo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sherpa Romeo</t>
+    </r>
+  </si>
+  <si>
+    <t>¿Es revista de acceso abierto (OAJ)?</t>
+  </si>
+  <si>
+    <t>Si la revista es OAJ, señalar en cuál de las siguientes bases de datos se encuentra:</t>
+  </si>
+  <si>
+    <t>Si la revista NO es OAJ, señalar en cuál de las siguientes bases de datos se encuentra:</t>
+  </si>
+  <si>
+    <t>PARA REVISTAS DE ACCESO ABIERTO:</t>
+  </si>
+  <si>
+    <t>PARA OTRAS REVISTAS:</t>
+  </si>
+  <si>
+    <t>https://v2.sherpa.ac.uk/romeo/</t>
+  </si>
+  <si>
+    <t>https://publicationethics.org/</t>
+  </si>
+  <si>
+    <t>https://oaspa.org/</t>
+  </si>
+  <si>
+    <t>https://doaj.org/</t>
+  </si>
+  <si>
+    <t>https://www2.cabells.com/about-predatory</t>
+  </si>
+  <si>
+    <t>Si la revista es OAJ, señalar en cuál de las siguientes bases de datos se encuentra (Sí/NO):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +490,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -509,6 +642,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C91ACF-A6FA-4CA2-BDF7-D5EA0C1C176C}">
-  <dimension ref="A1:U392"/>
+  <dimension ref="A1:U399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +974,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1"/>
@@ -1116,7 +1250,7 @@
     </row>
     <row r="12" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -1141,7 +1275,7 @@
     </row>
     <row r="13" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
@@ -1164,11 +1298,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
+    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1189,11 +1323,11 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
+    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1214,11 +1348,11 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1241,7 +1375,7 @@
     </row>
     <row r="17" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="1"/>
@@ -1266,7 +1400,7 @@
     </row>
     <row r="18" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="1"/>
@@ -1291,7 +1425,7 @@
     </row>
     <row r="19" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
@@ -1316,7 +1450,7 @@
     </row>
     <row r="20" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1"/>
@@ -1341,7 +1475,7 @@
     </row>
     <row r="21" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1"/>
@@ -1364,11 +1498,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
+    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1389,9 +1523,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1"/>
@@ -1416,7 +1550,7 @@
     </row>
     <row r="24" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1"/>
@@ -1441,7 +1575,7 @@
     </row>
     <row r="25" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1"/>
@@ -1466,7 +1600,7 @@
     </row>
     <row r="26" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
@@ -1491,7 +1625,7 @@
     </row>
     <row r="27" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
@@ -1516,7 +1650,7 @@
     </row>
     <row r="28" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1"/>
@@ -1541,7 +1675,7 @@
     </row>
     <row r="29" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
@@ -1566,7 +1700,7 @@
     </row>
     <row r="30" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
@@ -1589,11 +1723,11 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
+    <row r="31" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
       </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1614,9 +1748,11 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1637,9 +1773,11 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1660,9 +1798,11 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1683,9 +1823,11 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1706,9 +1848,11 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1729,9 +1873,11 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1752,9 +1898,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3340,7 +3488,7 @@
       <c r="U106" s="1"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3363,7 +3511,7 @@
       <c r="U107" s="1"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3386,7 +3534,7 @@
       <c r="U108" s="1"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3409,7 +3557,7 @@
       <c r="U109" s="1"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3432,7 +3580,7 @@
       <c r="U110" s="1"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3455,7 +3603,7 @@
       <c r="U111" s="1"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3478,7 +3626,7 @@
       <c r="U112" s="1"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -9917,9 +10065,170 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+      <c r="U393" s="1"/>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A29">
-    <sortCondition ref="A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:A36">
+    <sortCondition ref="A25"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -9929,10 +10238,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82FB0A7-4D2A-47BB-984D-63A58AC7246B}">
-  <dimension ref="A1:U392"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B19C7-A7C7-40DA-A587-046D4934E5C7}">
+  <dimension ref="A1:U399"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9943,10 +10252,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1"/>
@@ -10219,7 +10528,7 @@
     </row>
     <row r="12" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -10244,7 +10553,7 @@
     </row>
     <row r="13" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
@@ -10267,11 +10576,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
+    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -10292,11 +10601,11 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
+    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
       </c>
-      <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -10317,11 +10626,11 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -10344,7 +10653,7 @@
     </row>
     <row r="17" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="1"/>
@@ -10369,7 +10678,7 @@
     </row>
     <row r="18" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="1"/>
@@ -10394,7 +10703,7 @@
     </row>
     <row r="19" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
@@ -10419,7 +10728,7 @@
     </row>
     <row r="20" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1"/>
@@ -10444,7 +10753,7 @@
     </row>
     <row r="21" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1"/>
@@ -10467,11 +10776,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
+    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -10492,9 +10801,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1"/>
@@ -10519,7 +10828,7 @@
     </row>
     <row r="24" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1"/>
@@ -10544,7 +10853,7 @@
     </row>
     <row r="25" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1"/>
@@ -10569,7 +10878,7 @@
     </row>
     <row r="26" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
@@ -10594,7 +10903,7 @@
     </row>
     <row r="27" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
@@ -10619,7 +10928,7 @@
     </row>
     <row r="28" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1"/>
@@ -10644,7 +10953,7 @@
     </row>
     <row r="29" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
@@ -10669,7 +10978,7 @@
     </row>
     <row r="30" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
@@ -10692,11 +11001,11 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
+    <row r="31" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
       </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -10717,9 +11026,11 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -10740,9 +11051,11 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -10763,9 +11076,11 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -10786,9 +11101,11 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -10809,9 +11126,11 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -10832,9 +11151,11 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -10855,9 +11176,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -12443,7 +12766,7 @@
       <c r="U106" s="1"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -12466,7 +12789,7 @@
       <c r="U107" s="1"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -12489,7 +12812,7 @@
       <c r="U108" s="1"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -12512,7 +12835,7 @@
       <c r="U109" s="1"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -12535,7 +12858,7 @@
       <c r="U110" s="1"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -12558,7 +12881,7 @@
       <c r="U111" s="1"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -12581,7 +12904,7 @@
       <c r="U112" s="1"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -19020,6 +19343,167 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+      <c r="U393" s="1"/>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -19029,10 +19513,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0FF296-AAE9-4352-AA40-3655379C697E}">
-  <dimension ref="A1:U392"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E399EE-BBFC-43DC-AB39-38A53EB21313}">
+  <dimension ref="A1:U399"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19043,10 +19527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1"/>
@@ -19319,7 +19803,7 @@
     </row>
     <row r="12" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -19344,7 +19828,7 @@
     </row>
     <row r="13" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
@@ -19367,11 +19851,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
+    <row r="14" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -19392,11 +19876,11 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
+    <row r="15" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
       </c>
-      <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -19417,11 +19901,11 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -19444,7 +19928,7 @@
     </row>
     <row r="17" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="1"/>
@@ -19469,7 +19953,7 @@
     </row>
     <row r="18" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="1"/>
@@ -19494,7 +19978,7 @@
     </row>
     <row r="19" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
@@ -19519,7 +20003,7 @@
     </row>
     <row r="20" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1"/>
@@ -19544,7 +20028,7 @@
     </row>
     <row r="21" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1"/>
@@ -19567,11 +20051,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
+    <row r="22" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -19592,9 +20076,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1"/>
@@ -19619,7 +20103,7 @@
     </row>
     <row r="24" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1"/>
@@ -19644,7 +20128,7 @@
     </row>
     <row r="25" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1"/>
@@ -19669,7 +20153,7 @@
     </row>
     <row r="26" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
@@ -19694,7 +20178,7 @@
     </row>
     <row r="27" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
@@ -19719,7 +20203,7 @@
     </row>
     <row r="28" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1"/>
@@ -19744,7 +20228,7 @@
     </row>
     <row r="29" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
@@ -19769,7 +20253,7 @@
     </row>
     <row r="30" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
@@ -19792,11 +20276,11 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
+    <row r="31" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
       </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -19817,9 +20301,11 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -19840,9 +20326,11 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -19863,9 +20351,11 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -19886,9 +20376,11 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -19909,9 +20401,11 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -19932,9 +20426,11 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -19955,9 +20451,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -21543,7 +22041,7 @@
       <c r="U106" s="1"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -21566,7 +22064,7 @@
       <c r="U107" s="1"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -21589,7 +22087,7 @@
       <c r="U108" s="1"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -21612,7 +22110,7 @@
       <c r="U109" s="1"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -21635,7 +22133,7 @@
       <c r="U110" s="1"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -21658,7 +22156,7 @@
       <c r="U111" s="1"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -21681,7 +22179,7 @@
       <c r="U112" s="1"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -28120,6 +28618,167 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+      <c r="U393" s="1"/>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -28130,9 +28789,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4969C8B8-F8D7-4F3E-BD57-965E975D1E1F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28142,10 +28803,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -28153,139 +28814,187 @@
         <v>6</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>7</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B15" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="16" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{81FDED54-F69B-4FBB-BF4A-F584D62B41D1}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{1EF68F96-4394-4345-A6C0-77E4C067BD0D}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{14807ECB-7336-4EBF-8529-6D58FA2F1735}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{19A19FFA-D587-4A23-9945-6EE229710DF3}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{BECE45CE-0C3B-4BD9-B1BD-BF8F7DF9471F}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{37A618FC-1F05-4C0E-AA17-4F57110608A6}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{F1C08642-B6DF-41DB-8E7C-FE94F8EBD70E}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{81FDED54-F69B-4FBB-BF4A-F584D62B41D1}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{1EF68F96-4394-4345-A6C0-77E4C067BD0D}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{14807ECB-7336-4EBF-8529-6D58FA2F1735}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{19A19FFA-D587-4A23-9945-6EE229710DF3}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{BECE45CE-0C3B-4BD9-B1BD-BF8F7DF9471F}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{37A618FC-1F05-4C0E-AA17-4F57110608A6}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{F1C08642-B6DF-41DB-8E7C-FE94F8EBD70E}"/>
     <hyperlink ref="B2" r:id="rId8" xr:uid="{49982AD5-A6E9-4DB3-943F-68BECEA13833}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{AEC95592-A194-4520-B857-75BDFD8735AC}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{E4A024C8-6AFE-4681-9C0A-07C38F16C245}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{A63F7340-57C8-4663-9BA4-19B0F823E0C7}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{AEC95592-A194-4520-B857-75BDFD8735AC}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{E4A024C8-6AFE-4681-9C0A-07C38F16C245}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{A63F7340-57C8-4663-9BA4-19B0F823E0C7}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{1694C124-66D3-074D-A77A-0A448C9114A5}"/>
+    <hyperlink ref="B4" r:id="rId13" xr:uid="{845E9058-0681-42C3-923B-4E104A35474F}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{D3770F77-4991-402A-A9D9-ED0D2ABD2245}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{22E82162-109B-41BF-B4D8-7C58897A7148}"/>
+    <hyperlink ref="B7" r:id="rId16" xr:uid="{BA528905-97BE-4435-BAD4-7C5FE854CD6E}"/>
+    <hyperlink ref="B8" r:id="rId17" xr:uid="{295F6743-E4F3-493B-B76F-943C37AEBEEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
